--- a/COL/COL216/2022CS11621/Q2/Cycle Analysis.xlsx
+++ b/COL/COL216/2022CS11621/Q2/Cycle Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishi\Desktop\Programming\COL\COL216\2022CS11621\Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF219944-D04D-4CEA-9B3E-A061A3B05308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B1F560-79C9-4E63-8D3C-E6C1693040E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80288500-2112-4520-A84A-491948B8D223}"/>
   </bookViews>
@@ -2108,7 +2108,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="Z13" sqref="Z13:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
